--- a/results/NoiseExperiments.xlsx
+++ b/results/NoiseExperiments.xlsx
@@ -1483,11 +1483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86711296"/>
-        <c:axId val="86733952"/>
+        <c:axId val="88056192"/>
+        <c:axId val="88058112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86711296"/>
+        <c:axId val="88056192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -1568,12 +1568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86733952"/>
+        <c:crossAx val="88058112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86733952"/>
+        <c:axId val="88058112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86711296"/>
+        <c:crossAx val="88056192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3076,11 +3076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81388288"/>
-        <c:axId val="81390208"/>
+        <c:axId val="88131456"/>
+        <c:axId val="88141824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81388288"/>
+        <c:axId val="88131456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3156,12 +3156,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81390208"/>
+        <c:crossAx val="88141824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81390208"/>
+        <c:axId val="88141824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81388288"/>
+        <c:crossAx val="88131456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4664,11 +4664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81414400"/>
-        <c:axId val="81441152"/>
+        <c:axId val="89070976"/>
+        <c:axId val="89093632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81414400"/>
+        <c:axId val="89070976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -4745,12 +4745,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81441152"/>
+        <c:crossAx val="89093632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81441152"/>
+        <c:axId val="89093632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4825,7 +4825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81414400"/>
+        <c:crossAx val="89070976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6253,11 +6253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83894656"/>
-        <c:axId val="83896576"/>
+        <c:axId val="89564672"/>
+        <c:axId val="89566592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83894656"/>
+        <c:axId val="89564672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6333,12 +6333,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83896576"/>
+        <c:crossAx val="89566592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83896576"/>
+        <c:axId val="89566592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6414,7 +6414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83894656"/>
+        <c:crossAx val="89564672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9173,11 +9173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84104320"/>
-        <c:axId val="84106240"/>
+        <c:axId val="83346176"/>
+        <c:axId val="83348096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84104320"/>
+        <c:axId val="83346176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9253,12 +9253,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84106240"/>
+        <c:crossAx val="83348096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84106240"/>
+        <c:axId val="83348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9334,7 +9334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84104320"/>
+        <c:crossAx val="83346176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10092,16 +10092,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10412,7 +10412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10423,7 +10423,7 @@
   <dimension ref="A1:L924"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="V84" sqref="V84"/>
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
